--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl12</t>
   </si>
   <si>
     <t>Ccr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +522,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.847985951666361</v>
+        <v>0.857148</v>
       </c>
       <c r="H2">
-        <v>0.847985951666361</v>
+        <v>2.571444</v>
       </c>
       <c r="I2">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J2">
-        <v>0.05170188976223405</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.5743985648254</v>
+        <v>0.006600000000000001</v>
       </c>
       <c r="N2">
-        <v>5.5743985648254</v>
+        <v>0.0198</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.001099924410750217</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001099924410750217</v>
       </c>
       <c r="Q2">
-        <v>4.727011671961064</v>
+        <v>0.005657176800000001</v>
       </c>
       <c r="R2">
-        <v>4.727011671961064</v>
+        <v>0.0509145912</v>
       </c>
       <c r="S2">
-        <v>0.05170188976223405</v>
+        <v>5.265669988529737E-05</v>
       </c>
       <c r="T2">
-        <v>0.05170188976223405</v>
+        <v>5.265669988529737E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.5534638902266</v>
+        <v>0.857148</v>
       </c>
       <c r="H3">
-        <v>15.5534638902266</v>
+        <v>2.571444</v>
       </c>
       <c r="I3">
-        <v>0.9482981102377659</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="J3">
-        <v>0.9482981102377659</v>
+        <v>0.04787301688248034</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.5743985648254</v>
+        <v>5.926252666666667</v>
       </c>
       <c r="N3">
-        <v>5.5743985648254</v>
+        <v>17.778758</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9876409049000355</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9876409049000355</v>
       </c>
       <c r="Q3">
-        <v>86.70120678774285</v>
+        <v>5.079675620728</v>
       </c>
       <c r="R3">
-        <v>86.70120678774285</v>
+        <v>45.717080586552</v>
       </c>
       <c r="S3">
-        <v>0.9482981102377659</v>
+        <v>0.04728134971410756</v>
       </c>
       <c r="T3">
-        <v>0.9482981102377659</v>
+        <v>0.04728134971410757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.857148</v>
+      </c>
+      <c r="H4">
+        <v>2.571444</v>
+      </c>
+      <c r="I4">
+        <v>0.04787301688248034</v>
+      </c>
+      <c r="J4">
+        <v>0.04787301688248034</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.06755966666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.202679</v>
+      </c>
+      <c r="O4">
+        <v>0.0112591706892143</v>
+      </c>
+      <c r="P4">
+        <v>0.0112591706892143</v>
+      </c>
+      <c r="Q4">
+        <v>0.057908633164</v>
+      </c>
+      <c r="R4">
+        <v>0.521177698476</v>
+      </c>
+      <c r="S4">
+        <v>0.0005390104684874841</v>
+      </c>
+      <c r="T4">
+        <v>0.0005390104684874842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H5">
+        <v>47.82836</v>
+      </c>
+      <c r="I5">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J5">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.006600000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.0198</v>
+      </c>
+      <c r="O5">
+        <v>0.001099924410750217</v>
+      </c>
+      <c r="P5">
+        <v>0.001099924410750217</v>
+      </c>
+      <c r="Q5">
+        <v>0.105222392</v>
+      </c>
+      <c r="R5">
+        <v>0.9470015280000001</v>
+      </c>
+      <c r="S5">
+        <v>0.0009794044118891804</v>
+      </c>
+      <c r="T5">
+        <v>0.0009794044118891804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H6">
+        <v>47.82836</v>
+      </c>
+      <c r="I6">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J6">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.926252666666667</v>
+      </c>
+      <c r="N6">
+        <v>17.778758</v>
+      </c>
+      <c r="O6">
+        <v>0.9876409049000355</v>
+      </c>
+      <c r="P6">
+        <v>0.9876409049000355</v>
+      </c>
+      <c r="Q6">
+        <v>94.48098199743112</v>
+      </c>
+      <c r="R6">
+        <v>850.3288379768801</v>
+      </c>
+      <c r="S6">
+        <v>0.8794239405611142</v>
+      </c>
+      <c r="T6">
+        <v>0.8794239405611143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.94278666666667</v>
+      </c>
+      <c r="H7">
+        <v>47.82836</v>
+      </c>
+      <c r="I7">
+        <v>0.8904288352152905</v>
+      </c>
+      <c r="J7">
+        <v>0.8904288352152906</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.06755966666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.202679</v>
+      </c>
+      <c r="O7">
+        <v>0.0112591706892143</v>
+      </c>
+      <c r="P7">
+        <v>0.0112591706892143</v>
+      </c>
+      <c r="Q7">
+        <v>1.077089352937778</v>
+      </c>
+      <c r="R7">
+        <v>9.69380417644</v>
+      </c>
+      <c r="S7">
+        <v>0.01002549024228723</v>
+      </c>
+      <c r="T7">
+        <v>0.01002549024228723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.314045</v>
+      </c>
+      <c r="I8">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J8">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.006600000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.0198</v>
+      </c>
+      <c r="O8">
+        <v>0.001099924410750217</v>
+      </c>
+      <c r="P8">
+        <v>0.001099924410750217</v>
+      </c>
+      <c r="Q8">
+        <v>0.007290899000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.065618091</v>
+      </c>
+      <c r="S8">
+        <v>6.786329897573906E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.786329897573905E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.314045</v>
+      </c>
+      <c r="I9">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J9">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.926252666666667</v>
+      </c>
+      <c r="N9">
+        <v>17.778758</v>
+      </c>
+      <c r="O9">
+        <v>0.9876409049000355</v>
+      </c>
+      <c r="P9">
+        <v>0.9876409049000355</v>
+      </c>
+      <c r="Q9">
+        <v>6.546622672901112</v>
+      </c>
+      <c r="R9">
+        <v>58.91960405611</v>
+      </c>
+      <c r="S9">
+        <v>0.06093561462481376</v>
+      </c>
+      <c r="T9">
+        <v>0.06093561462481376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>1.104681666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.314045</v>
+      </c>
+      <c r="I10">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="J10">
+        <v>0.06169814790222908</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.06755966666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.202679</v>
+      </c>
+      <c r="O10">
+        <v>0.0112591706892143</v>
+      </c>
+      <c r="P10">
+        <v>0.0112591706892143</v>
+      </c>
+      <c r="Q10">
+        <v>0.07463192517277779</v>
+      </c>
+      <c r="R10">
+        <v>0.6716873265550001</v>
+      </c>
+      <c r="S10">
+        <v>0.0006946699784395866</v>
+      </c>
+      <c r="T10">
+        <v>0.0006946699784395866</v>
       </c>
     </row>
   </sheetData>
